--- a/EL_Electrical/Faisceau/Connecteurs.xlsx
+++ b/EL_Electrical/Faisceau/Connecteurs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Ressources2020\EL_Electrical\Faisceau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92522CBE-8355-4550-93FA-25B7B5AF1330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12624" yWindow="4512" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12624" yWindow="4512" windowWidth="23040" windowHeight="12204"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,33 +56,6 @@
     <t>DISP 2</t>
   </si>
   <si>
-    <t>OUT 1</t>
-  </si>
-  <si>
-    <t>OUT 2</t>
-  </si>
-  <si>
-    <t>OUT 3</t>
-  </si>
-  <si>
-    <t>OUT 4</t>
-  </si>
-  <si>
-    <t>OUT 5</t>
-  </si>
-  <si>
-    <t>OUT 6</t>
-  </si>
-  <si>
-    <t>OUT 7</t>
-  </si>
-  <si>
-    <t>OUT 8</t>
-  </si>
-  <si>
-    <t>OUT 9</t>
-  </si>
-  <si>
     <t>Palette 1</t>
   </si>
   <si>
@@ -130,12 +102,39 @@
   </si>
   <si>
     <t>DTA 7</t>
+  </si>
+  <si>
+    <t>OUT 1- 5V</t>
+  </si>
+  <si>
+    <t>OUT 2- SL_RED</t>
+  </si>
+  <si>
+    <t>OUT 3- SL_BLUE</t>
+  </si>
+  <si>
+    <t>IN 4-LOG_SWITCH</t>
+  </si>
+  <si>
+    <t>IN 5 - TC_switch</t>
+  </si>
+  <si>
+    <t>IN 6 - W/D_Switch</t>
+  </si>
+  <si>
+    <t>IN 7 - LC_Button</t>
+  </si>
+  <si>
+    <t>IN 8 - Homing_Button</t>
+  </si>
+  <si>
+    <t>IN 9 - Neutre_Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,16 +462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -533,108 +532,108 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/EL_Electrical/Faisceau/Connecteurs.xlsx
+++ b/EL_Electrical/Faisceau/Connecteurs.xlsx
@@ -5,14 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\EPSA\Ressource 2020\EL_Electrical\Faisceau\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lecoc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12624" yWindow="4512" windowWidth="23040" windowHeight="12204"/>
+    <workbookView xWindow="-12624" yWindow="4512" windowWidth="23040" windowHeight="12204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cab" sheetId="2" r:id="rId2"/>
+    <sheet name="commande vulcanix" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -30,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>Carte avant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>Power 12 V</t>
   </si>
@@ -47,9 +46,6 @@
     <t>CANL</t>
   </si>
   <si>
-    <t>Carte arrière</t>
-  </si>
-  <si>
     <t>DISP 1</t>
   </si>
   <si>
@@ -129,13 +125,271 @@
   </si>
   <si>
     <t>IN 9 - Neutre_Button</t>
+  </si>
+  <si>
+    <t>Parefeu</t>
+  </si>
+  <si>
+    <t>Power 12V</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>CAN H</t>
+  </si>
+  <si>
+    <t>CAN L</t>
+  </si>
+  <si>
+    <t>Capteur Roue AD</t>
+  </si>
+  <si>
+    <t>Capteur Roue AG</t>
+  </si>
+  <si>
+    <t>Capteur débattement x2</t>
+  </si>
+  <si>
+    <t>Capteur</t>
+  </si>
+  <si>
+    <t>Vitesse roue x4</t>
+  </si>
+  <si>
+    <t>Debattement x4</t>
+  </si>
+  <si>
+    <t>Rear brake pressure</t>
+  </si>
+  <si>
+    <t>Front brake pressure</t>
+  </si>
+  <si>
+    <t>Bouton démarrage</t>
+  </si>
+  <si>
+    <t>GND_Relais</t>
+  </si>
+  <si>
+    <t>Protection 12V relais</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>Shutdown IN</t>
+  </si>
+  <si>
+    <t>Shutdown OUT</t>
+  </si>
+  <si>
+    <t>Throttle position</t>
+  </si>
+  <si>
+    <t>FB Pressure</t>
+  </si>
+  <si>
+    <t>BSPD (1 molex)</t>
+  </si>
+  <si>
+    <t>Timer (1 molex)</t>
+  </si>
+  <si>
+    <t>Carte arrière (2 molex même côté)</t>
+  </si>
+  <si>
+    <t>Carte avant (2 molex même côté)</t>
+  </si>
+  <si>
+    <t>8STA71608SN PPF</t>
+  </si>
+  <si>
+    <t>8STA71208SA PPF</t>
+  </si>
+  <si>
+    <t>8STA71005SN PPF capteurs roue</t>
+  </si>
+  <si>
+    <t>8STA61832PN cable motored</t>
+  </si>
+  <si>
+    <t>8STA61608SN puissance boite avant</t>
+  </si>
+  <si>
+    <t>8STA61608PN PPF</t>
+  </si>
+  <si>
+    <t>8STA61497PN cable motored</t>
+  </si>
+  <si>
+    <t>8STA61208SN ??</t>
+  </si>
+  <si>
+    <t>8STA61208PA PPF</t>
+  </si>
+  <si>
+    <t>8STA61099PN boite motored</t>
+  </si>
+  <si>
+    <t>8STA61005PN PPF capteurs roue</t>
+  </si>
+  <si>
+    <t>8STA61002SN commandé "au cas où", pas utilisé. En stock.</t>
+  </si>
+  <si>
+    <t>8STA61002PN x3 alim boite motored, alim boite avant, liaison BOTS-boite avant selon ancien plan(pas utilisé, en stock)</t>
+  </si>
+  <si>
+    <t>8STA60898SA prévu dans un ancien plan de cablage, mais plus besoin. En stock.</t>
+  </si>
+  <si>
+    <t>8STA11002PN commandé "au cas où", pas utilisé. En stock.</t>
+  </si>
+  <si>
+    <t>8STA10898PA prévu dans un ancien plan de cablage, mais plus besoin. En stock.</t>
+  </si>
+  <si>
+    <t>8STA01832SN boite avant</t>
+  </si>
+  <si>
+    <t>8STA01608PN puissance boite avant</t>
+  </si>
+  <si>
+    <t>8STA01497SN cable motored</t>
+  </si>
+  <si>
+    <t>8STA01208PN ??</t>
+  </si>
+  <si>
+    <t>8STA01099SN boite motored</t>
+  </si>
+  <si>
+    <t>8STA01002SN x3, alim boite motored, alim boite avant, liaison BOTS-boite avant selon ancien plan(pas utilisé, en stock)</t>
+  </si>
+  <si>
+    <t>85990704MJ  x10, pins #16</t>
+  </si>
+  <si>
+    <t>85990703SA  x50, pins #20</t>
+  </si>
+  <si>
+    <t>85990708900 x10, pins #16</t>
+  </si>
+  <si>
+    <t>85990707900 x50, pins #20</t>
+  </si>
+  <si>
+    <t>Boite arrière</t>
+  </si>
+  <si>
+    <t>Boite avant</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>BSPD</t>
+  </si>
+  <si>
+    <t>Debattement</t>
+  </si>
+  <si>
+    <t>vitesse</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>Contact size #16 - 8599-0704 MJ - x</t>
+  </si>
+  <si>
+    <t>Contact size #20 -8599-0703 SA - x</t>
+  </si>
+  <si>
+    <t>Socket</t>
+  </si>
+  <si>
+    <t>8STA01415SN</t>
+  </si>
+  <si>
+    <t>(14#20 1#16)</t>
+  </si>
+  <si>
+    <t>(5#16)</t>
+  </si>
+  <si>
+    <t>8STA01405SN</t>
+  </si>
+  <si>
+    <t>8STA01208SN</t>
+  </si>
+  <si>
+    <t>(8#20)</t>
+  </si>
+  <si>
+    <t>(Cable + DTA)</t>
+  </si>
+  <si>
+    <t>(Alim, palette CAN)</t>
+  </si>
+  <si>
+    <t>8STA01419SN</t>
+  </si>
+  <si>
+    <t>(19#20)</t>
+  </si>
+  <si>
+    <t>Plug faisceau avant</t>
+  </si>
+  <si>
+    <t>Extracteur</t>
+  </si>
+  <si>
+    <t>M81969/14-10</t>
+  </si>
+  <si>
+    <t>M81969/14-03</t>
+  </si>
+  <si>
+    <t>#20</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>8LTA203F05PN</t>
+  </si>
+  <si>
+    <t>(5#26) x4</t>
+  </si>
+  <si>
+    <t>ou 8STA0205PN</t>
+  </si>
+  <si>
+    <t>8STA0205PN</t>
+  </si>
+  <si>
+    <t>8STA61419PN</t>
+  </si>
+  <si>
+    <t>#26</t>
+  </si>
+  <si>
+    <t>Contact size #26 - 8599-0397 - x50</t>
+  </si>
+  <si>
+    <t>Contact size #16 - 8599-0708 900 - x10</t>
+  </si>
+  <si>
+    <t>Contact size #20 - 8599-0707 900 - x70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +411,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +428,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -174,15 +436,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,186 +896,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="D1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1">
+        <f>COUNTA(D2:D7)</f>
+        <v>6</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="I1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3">
+        <f>COUNTA(A2:A17)</f>
+        <v>15</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <f>COUNTA(F2:F21)</f>
+        <v>20</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="25">
+        <f>COUNTA(I2:I11)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="D3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="I4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="I5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="I6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B7" s="3"/>
+      <c r="D7" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="I7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G8" s="8"/>
+      <c r="I8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="D9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9">
+        <f>COUNTA(D10:D14)</f>
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G9" s="8"/>
+      <c r="I9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" s="3"/>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G10" s="8"/>
+      <c r="I10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="3"/>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="I11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B12" s="3"/>
+      <c r="D12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B13" s="3"/>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" s="3"/>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" s="3"/>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B16" s="5"/>
+      <c r="F16" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
+      <c r="G16" s="8"/>
+      <c r="I16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+      <c r="G17" s="8"/>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
+      <c r="G18" s="8"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+      <c r="G19" s="8"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+      <c r="G20" s="8"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="6:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
+      <c r="G21" s="10"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="3">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="26">
+        <v>85990444900</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>